--- a/wafers.xlsx
+++ b/wafers.xlsx
@@ -968,7 +968,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>live_update5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
